--- a/Alquileres/LimaLimon/Ddjj-LimaLimon2023.xlsx
+++ b/Alquileres/LimaLimon/Ddjj-LimaLimon2023.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Alquileres/LimaLimon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/Alquileres/LimaLimon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11D0743-1050-4DA2-AF37-06131225A0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5FFDE4-1A5E-AA4A-9C7C-18F79E608F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E5A13A-B759-4CE0-9748-D7A459948A6B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14740" windowHeight="15720" activeTab="2" xr2:uid="{F7E5A13A-B759-4CE0-9748-D7A459948A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Sheet1 (2)'!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Ingresos Brutos</t>
   </si>
@@ -87,6 +90,18 @@
   </si>
   <si>
     <t>21-Mayo-2324</t>
+  </si>
+  <si>
+    <t>31-Marzo-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por este medio declaro bajo juramento los valores de alquiler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cobrados a la empresa Paq Express SRL en concepto de alquiler del local fueron </t>
+  </si>
+  <si>
+    <t>los siguientes durante estos meses.</t>
   </si>
 </sst>
 </file>
@@ -94,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -173,7 +188,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -522,16 +537,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE92D61-5C57-4071-AB6C-316E041B7B62}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,29 +554,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -570,7 +585,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>44958</v>
       </c>
@@ -579,7 +594,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>44986</v>
       </c>
@@ -588,7 +603,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -597,7 +612,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>45047</v>
       </c>
@@ -606,7 +621,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>45078</v>
       </c>
@@ -615,7 +630,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>45108</v>
       </c>
@@ -624,7 +639,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -633,7 +648,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>45170</v>
       </c>
@@ -642,7 +657,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>45200</v>
       </c>
@@ -651,7 +666,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>45231</v>
       </c>
@@ -660,7 +675,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -669,7 +684,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
@@ -678,29 +693,238 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Documento: Personal&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCB27CA-1007-9846-B9CB-62DB5A8B0963}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9DD08D-0AE2-C547-BF3C-5A79F3A56CD1}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>45413</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>45444</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>45474</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>45505</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>45536</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>45566</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>45597</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>45627</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>45658</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>45689</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>45717</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>45748</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>45778</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
